--- a/csdata/Fe/SI/Fe25+.xlsx
+++ b/csdata/Fe/SI/Fe25+.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gmondeel/Documents/CfA/Chandra/CHANDRA-Rates/csdata/Fe/SI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389CC3DD-F250-D04F-A903-208E2C2F6AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F904B-3DF8-4D4A-9AF4-ED5F26382C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15140" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,7 +137,7 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -359,7 +359,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D8" sqref="D3:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -400,7 +400,7 @@
       <c r="E2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2">
         <f>_xlfn.XLOOKUP(MAX(B:B),B:B,C:C)/MAX(B:B)</f>
         <v>0.55660377358490565</v>
       </c>
@@ -435,7 +435,7 @@
       <c r="C3" s="5">
         <v>0.12</v>
       </c>
-      <c r="D3" s="3"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -469,7 +469,7 @@
       <c r="C4" s="5">
         <v>0.15</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -503,7 +503,7 @@
       <c r="C5" s="5">
         <v>0.23</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="12"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -537,7 +537,7 @@
       <c r="C6" s="5">
         <v>0.34</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="12"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -571,7 +571,7 @@
       <c r="C7" s="5">
         <v>0.79</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -605,7 +605,7 @@
       <c r="C8" s="5">
         <v>1.18</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -629,7 +629,7 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -657,7 +657,7 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -685,7 +685,7 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -713,7 +713,7 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -741,7 +741,7 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -769,7 +769,7 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -797,7 +797,7 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -825,7 +825,7 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -853,7 +853,7 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -881,7 +881,7 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -909,7 +909,7 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -937,7 +937,7 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -965,7 +965,7 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -993,7 +993,7 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -1021,7 +1021,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1049,7 +1049,7 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1077,7 +1077,7 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -1105,7 +1105,7 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -1133,7 +1133,7 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -1161,7 +1161,7 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -1189,7 +1189,7 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -1217,7 +1217,7 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -1243,7 +1243,7 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -1269,7 +1269,7 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -1295,7 +1295,7 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -1321,7 +1321,7 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -1347,7 +1347,7 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1373,7 +1373,7 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -1399,7 +1399,7 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -1425,7 +1425,7 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -1451,7 +1451,7 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -1477,7 +1477,7 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -1503,7 +1503,7 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -1529,7 +1529,7 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -1555,7 +1555,7 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -1581,7 +1581,7 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -1607,7 +1607,7 @@
       <c r="Y44" s="4"/>
       <c r="Z44" s="4"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -1633,7 +1633,7 @@
       <c r="Y45" s="4"/>
       <c r="Z45" s="4"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -1659,7 +1659,7 @@
       <c r="Y46" s="4"/>
       <c r="Z46" s="4"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -1685,7 +1685,7 @@
       <c r="Y47" s="4"/>
       <c r="Z47" s="4"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -1711,7 +1711,7 @@
       <c r="Y48" s="4"/>
       <c r="Z48" s="4"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
